--- a/src/main/resources/data/new_customers.xlsx
+++ b/src/main/resources/data/new_customers.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>dob</t>
   </si>
@@ -72,16 +73,84 @@
   </si>
   <si>
     <t>previousNames</t>
+  </si>
+  <si>
+    <t>PageURL</t>
+  </si>
+  <si>
+    <t>PageName</t>
+  </si>
+  <si>
+    <t>SelectorType</t>
+  </si>
+  <si>
+    <t>field type</t>
+  </si>
+  <si>
+    <t>whatever</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>selector</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>radioButton</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>file:///src/test/resources/testData/pageOne.html</t>
+  </si>
+  <si>
+    <t>file:///src/test/resources/testData/pageTwo.html</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,15 +173,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -388,70 +460,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/data/new_customers.xlsx
+++ b/src/main/resources/data/new_customers.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,52 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>Kalvino</t>
-  </si>
-  <si>
-    <t>Spock</t>
-  </si>
-  <si>
-    <t>Miss</t>
-  </si>
-  <si>
-    <t>Stefania</t>
-  </si>
-  <si>
-    <t>01/07/1999</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Francesco</t>
-  </si>
-  <si>
-    <t>kalvino</t>
-  </si>
-  <si>
-    <t>Leila</t>
-  </si>
-  <si>
-    <t>03/05/9999</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>surname</t>
-  </si>
-  <si>
-    <t>previousNames</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>PageURL</t>
   </si>
@@ -84,62 +38,65 @@
     <t>SelectorType</t>
   </si>
   <si>
-    <t>field type</t>
-  </si>
-  <si>
-    <t>whatever</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>css</t>
-  </si>
-  <si>
-    <t>selector</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>radioButton</t>
-  </si>
-  <si>
-    <t>checkbox</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>file:///src/test/resources/testData/pageOne.html</t>
-  </si>
-  <si>
-    <t>file:///src/test/resources/testData/pageTwo.html</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>https://amidotestapp.herokuapp.com/form</t>
+  </si>
+  <si>
+    <t>pageName</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>field name</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>personalDetails.telephoneNumber</t>
+  </si>
+  <si>
+    <t>personalDetails.address.addressLineOne</t>
+  </si>
+  <si>
+    <t>personalDetails.address.addressLineTwo</t>
+  </si>
+  <si>
+    <t>personalDetails.address.addressLineThree</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>fc572</t>
+  </si>
+  <si>
+    <t>0777888999</t>
+  </si>
+  <si>
+    <t>Address line One</t>
+  </si>
+  <si>
+    <t>Address Line two</t>
+  </si>
+  <si>
+    <t>Address line Three</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>btnStyle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +111,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,11 +139,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -460,293 +423,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>